--- a/Labs/Excel/resources/пример_8_4.xlsx
+++ b/Labs/Excel/resources/пример_8_4.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F00F9-9853-446F-9318-6A644DD7C5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15255" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
@@ -89,10 +95,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -208,10 +214,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -220,21 +226,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Денежный 2" xfId="2"/>
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -251,39 +259,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,9 +324,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +376,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -432,7 +474,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -441,7 +483,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -450,7 +492,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -526,10 +568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,7 +617,7 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -585,7 +629,7 @@
       <c r="E2" s="5">
         <v>95.5</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>93.34</v>
       </c>
       <c r="G2" s="8">
@@ -596,10 +640,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5">
@@ -611,7 +655,7 @@
       <c r="E3" s="5">
         <v>99.42</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>66.37</v>
       </c>
       <c r="G3" s="8">
@@ -622,10 +666,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
@@ -637,7 +681,7 @@
       <c r="E4" s="5">
         <v>12.14</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>59.47</v>
       </c>
       <c r="G4" s="8">
@@ -648,10 +692,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="5">
@@ -663,7 +707,7 @@
       <c r="E5" s="5">
         <v>66.33</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>58.65</v>
       </c>
       <c r="G5" s="8">
@@ -674,10 +718,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5">
@@ -689,7 +733,7 @@
       <c r="E6" s="5">
         <v>13.19</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>56.53</v>
       </c>
       <c r="G6" s="8">
@@ -700,10 +744,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="5">
@@ -715,7 +759,7 @@
       <c r="E7" s="5">
         <v>13.85</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>28.74</v>
       </c>
       <c r="G7" s="8">
@@ -726,10 +770,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5">
@@ -741,7 +785,7 @@
       <c r="E8" s="5">
         <v>8.5</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>91.16</v>
       </c>
       <c r="G8" s="8">
@@ -752,10 +796,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5">
@@ -767,7 +811,7 @@
       <c r="E9" s="5">
         <v>97.41</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>33.130000000000003</v>
       </c>
       <c r="G9" s="8">
@@ -778,10 +822,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="5">
@@ -793,7 +837,7 @@
       <c r="E10" s="5">
         <v>38.11</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>67.37</v>
       </c>
       <c r="G10" s="8">
@@ -804,10 +848,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="5">
@@ -819,7 +863,7 @@
       <c r="E11" s="5">
         <v>12.18</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>24.5</v>
       </c>
       <c r="G11" s="8">
@@ -830,10 +874,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5">
@@ -845,7 +889,7 @@
       <c r="E12" s="5">
         <v>22.94</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>87.8</v>
       </c>
       <c r="G12" s="8">
@@ -856,10 +900,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5">
@@ -871,7 +915,7 @@
       <c r="E13" s="5">
         <v>27.74</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>88.97</v>
       </c>
       <c r="G13" s="8">
@@ -882,10 +926,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5">
@@ -897,7 +941,7 @@
       <c r="E14" s="5">
         <v>14.39</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>26.25</v>
       </c>
       <c r="G14" s="8">
@@ -909,14 +953,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -957,10 +1004,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -972,7 +1019,7 @@
       <c r="E2" s="5">
         <v>95.5</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>93.34</v>
       </c>
       <c r="G2" s="5">
@@ -983,10 +1030,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5">
@@ -998,7 +1045,7 @@
       <c r="E3" s="5">
         <v>8.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>91.16</v>
       </c>
       <c r="G3" s="5">
@@ -1009,10 +1056,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
@@ -1024,7 +1071,7 @@
       <c r="E4" s="5">
         <v>27.74</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>88.97</v>
       </c>
       <c r="G4" s="5">
@@ -1035,10 +1082,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="5">
@@ -1050,7 +1097,7 @@
       <c r="E5" s="5">
         <v>22.94</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>87.8</v>
       </c>
       <c r="G5" s="5">
@@ -1061,10 +1108,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="5">
@@ -1076,7 +1123,7 @@
       <c r="E6" s="5">
         <v>38.11</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>67.37</v>
       </c>
       <c r="G6" s="5">
@@ -1087,10 +1134,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5">
@@ -1102,7 +1149,7 @@
       <c r="E7" s="5">
         <v>99.42</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>66.37</v>
       </c>
       <c r="G7" s="5">
@@ -1113,10 +1160,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
@@ -1128,7 +1175,7 @@
       <c r="E8" s="5">
         <v>12.14</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>59.47</v>
       </c>
       <c r="G8" s="5">
@@ -1139,10 +1186,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5">
@@ -1154,7 +1201,7 @@
       <c r="E9" s="5">
         <v>66.33</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>58.65</v>
       </c>
       <c r="G9" s="5">
@@ -1165,10 +1212,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5">
@@ -1180,7 +1227,7 @@
       <c r="E10" s="5">
         <v>13.19</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>56.53</v>
       </c>
       <c r="G10" s="5">
@@ -1191,10 +1238,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="5">
@@ -1206,7 +1253,7 @@
       <c r="E11" s="5">
         <v>97.41</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>33.130000000000003</v>
       </c>
       <c r="G11" s="5">
@@ -1217,10 +1264,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5">
@@ -1232,7 +1279,7 @@
       <c r="E12" s="5">
         <v>13.85</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>28.74</v>
       </c>
       <c r="G12" s="5">
@@ -1243,10 +1290,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5">
@@ -1258,7 +1305,7 @@
       <c r="E13" s="5">
         <v>14.39</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>26.25</v>
       </c>
       <c r="G13" s="5">
@@ -1269,10 +1316,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5">
@@ -1284,7 +1331,7 @@
       <c r="E14" s="5">
         <v>12.18</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>24.5</v>
       </c>
       <c r="G14" s="5">
@@ -1295,7 +1342,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
     <sortCondition descending="1" ref="F7"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
